--- a/files/recaudos.xlsx
+++ b/files/recaudos.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>31.07.2023</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -824,7 +824,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -914,7 +914,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -944,7 +944,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -974,7 +974,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1034,7 +1034,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1094,7 +1094,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1154,7 +1154,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1244,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1604,7 +1604,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1634,7 +1634,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1724,7 +1724,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1964,7 +1964,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -1994,7 +1994,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2054,7 +2054,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2174,7 +2174,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2354,7 +2354,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -11299,7 +11299,7 @@
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>11/08/2023</t>
+          <t>20.077.2023</t>
         </is>
       </c>
     </row>
@@ -13619,7 +13619,7 @@
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>19.07.2023</t>
         </is>
       </c>
     </row>
@@ -14907,11 +14907,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F524" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="525">
       <c r="A525" t="n">
@@ -15154,7 +15149,7 @@
       </c>
       <c r="F533" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>13.07.2023</t>
         </is>
       </c>
     </row>
@@ -15319,7 +15314,7 @@
       </c>
       <c r="F539" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -16379,7 +16374,7 @@
       </c>
       <c r="F576" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -16409,7 +16404,7 @@
       </c>
       <c r="F577" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>14.07.2023</t>
         </is>
       </c>
     </row>
@@ -17647,11 +17642,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F621" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="622">
       <c r="A622" t="n">
@@ -18562,11 +18552,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F653" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="654">
       <c r="A654" t="n">
@@ -19739,7 +19724,7 @@
       </c>
       <c r="F696" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -19929,7 +19914,7 @@
       </c>
       <c r="F703" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>25.07.2023</t>
         </is>
       </c>
     </row>
@@ -20354,7 +20339,7 @@
       </c>
       <c r="F719" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>19.07.2023</t>
         </is>
       </c>
     </row>
@@ -20622,11 +20607,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F729" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="730">
       <c r="A730" t="n">
@@ -20652,11 +20632,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F730" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="731">
       <c r="A731" t="n">
@@ -21044,7 +21019,7 @@
       </c>
       <c r="F744" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -21304,7 +21279,7 @@
       </c>
       <c r="F754" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -21774,7 +21749,7 @@
       </c>
       <c r="F772" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -21864,7 +21839,7 @@
       </c>
       <c r="F775" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>18.07.2023</t>
         </is>
       </c>
     </row>
@@ -21979,7 +21954,7 @@
       </c>
       <c r="F779" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -22169,7 +22144,7 @@
       </c>
       <c r="F786" t="inlineStr">
         <is>
-          <t>11/08/2023</t>
+          <t>18.07.2023</t>
         </is>
       </c>
     </row>
@@ -23009,7 +22984,7 @@
       </c>
       <c r="F818" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -23149,7 +23124,7 @@
       </c>
       <c r="F823" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -24459,7 +24434,7 @@
       </c>
       <c r="F871" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -24489,7 +24464,7 @@
       </c>
       <c r="F872" t="inlineStr">
         <is>
-          <t>17/08/2023</t>
+          <t>20.07.2023</t>
         </is>
       </c>
     </row>
@@ -24579,7 +24554,7 @@
       </c>
       <c r="F875" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -25044,7 +25019,7 @@
       </c>
       <c r="F891" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -25737,11 +25712,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F915" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="916">
       <c r="A916" t="n">
@@ -25829,7 +25799,7 @@
       </c>
       <c r="F918" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -26157,11 +26127,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F929" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="930">
       <c r="A930" t="n">
@@ -26392,11 +26357,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F937" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
@@ -26479,7 +26439,7 @@
       </c>
       <c r="F940" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -26562,11 +26522,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F943" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="944">
       <c r="A944" t="n">
@@ -26884,7 +26839,7 @@
       </c>
       <c r="F954" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -27839,7 +27794,7 @@
       </c>
       <c r="F987" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>21.07.2023</t>
         </is>
       </c>
     </row>
@@ -27984,7 +27939,7 @@
       </c>
       <c r="F992" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -28694,7 +28649,7 @@
       </c>
       <c r="F1016" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -28867,11 +28822,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1022" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1023">
       <c r="A1023" t="n">
@@ -28899,7 +28849,7 @@
       </c>
       <c r="F1023" t="inlineStr">
         <is>
-          <t>12/08/2023</t>
+          <t>25.07.2023</t>
         </is>
       </c>
     </row>
@@ -29254,7 +29204,7 @@
       </c>
       <c r="F1035" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -29449,7 +29399,7 @@
       </c>
       <c r="F1042" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -29579,7 +29529,7 @@
       </c>
       <c r="F1047" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -29607,11 +29557,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1048" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1049">
       <c r="A1049" t="n">
@@ -29669,7 +29614,7 @@
       </c>
       <c r="F1050" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -29929,7 +29874,7 @@
       </c>
       <c r="F1060" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -29959,7 +29904,7 @@
       </c>
       <c r="F1061" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -30072,11 +30017,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1065" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1066">
       <c r="A1066" t="n">
@@ -30164,7 +30104,7 @@
       </c>
       <c r="F1068" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -30277,11 +30217,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1072" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1073">
       <c r="A1073" t="n">
@@ -30464,7 +30399,7 @@
       </c>
       <c r="F1079" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>25.07.2023</t>
         </is>
       </c>
     </row>
@@ -30599,7 +30534,7 @@
       </c>
       <c r="F1084" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -30629,7 +30564,7 @@
       </c>
       <c r="F1085" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -30707,11 +30642,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1088" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1089">
       <c r="A1089" t="n">
@@ -30964,7 +30894,7 @@
       </c>
       <c r="F1098" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -31109,7 +31039,7 @@
       </c>
       <c r="F1103" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -31249,7 +31179,7 @@
       </c>
       <c r="F1108" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -31279,7 +31209,7 @@
       </c>
       <c r="F1109" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -31334,7 +31264,7 @@
       </c>
       <c r="F1111" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -31364,7 +31294,7 @@
       </c>
       <c r="F1112" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -31392,11 +31322,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1114">
       <c r="A1114" t="n">
@@ -31424,7 +31349,7 @@
       </c>
       <c r="F1114" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -31704,7 +31629,7 @@
       </c>
       <c r="F1124" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -31734,7 +31659,7 @@
       </c>
       <c r="F1125" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -31812,11 +31737,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1129">
       <c r="A1129" t="n">
@@ -31844,7 +31764,7 @@
       </c>
       <c r="F1129" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -31949,7 +31869,7 @@
       </c>
       <c r="F1133" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -32029,7 +31949,7 @@
       </c>
       <c r="F1136" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -32147,11 +32067,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1140" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1141">
       <c r="A1141" t="n">
@@ -32179,7 +32094,7 @@
       </c>
       <c r="F1141" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -32482,11 +32397,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1152" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1153">
       <c r="A1153" t="n">
@@ -32544,7 +32454,7 @@
       </c>
       <c r="F1154" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -32654,7 +32564,7 @@
       </c>
       <c r="F1158" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>25.07.2023</t>
         </is>
       </c>
     </row>
@@ -33169,7 +33079,7 @@
       </c>
       <c r="F1176" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -33199,7 +33109,7 @@
       </c>
       <c r="F1177" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -33254,7 +33164,7 @@
       </c>
       <c r="F1179" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -33547,11 +33457,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1189" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1190">
       <c r="A1190" t="n">
@@ -33602,11 +33507,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1191" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1192">
       <c r="A1192" t="n">
@@ -33937,11 +33837,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1203" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1204">
       <c r="A1204" t="n">
@@ -34167,11 +34062,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1211" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1212">
       <c r="A1212" t="n">
@@ -34279,7 +34169,7 @@
       </c>
       <c r="F1215" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -34332,11 +34222,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1217" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1218">
       <c r="A1218" t="n">
@@ -34532,11 +34417,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1224" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1225">
       <c r="A1225" t="n">
@@ -34647,11 +34527,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1228" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1229">
       <c r="A1229" t="n">
@@ -34764,7 +34639,7 @@
       </c>
       <c r="F1232" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -34867,11 +34742,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1236" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1237">
       <c r="A1237" t="n">
@@ -34897,11 +34767,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1237" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1238">
       <c r="A1238" t="n">
@@ -34927,11 +34792,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1238" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1239">
       <c r="A1239" t="n">
@@ -34984,7 +34844,7 @@
       </c>
       <c r="F1240" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -35012,11 +34872,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1241" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1242">
       <c r="A1242" t="n">
@@ -35044,7 +34899,7 @@
       </c>
       <c r="F1242" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -35074,7 +34929,7 @@
       </c>
       <c r="F1243" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -35104,7 +34959,7 @@
       </c>
       <c r="F1244" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -35162,11 +35017,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1246" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1247">
       <c r="A1247" t="n">
@@ -35244,7 +35094,7 @@
       </c>
       <c r="F1249" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -35299,7 +35149,7 @@
       </c>
       <c r="F1251" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -35354,7 +35204,7 @@
       </c>
       <c r="F1253" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -35409,7 +35259,7 @@
       </c>
       <c r="F1255" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -35439,7 +35289,7 @@
       </c>
       <c r="F1256" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -35562,11 +35412,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1261" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1262">
       <c r="A1262" t="n">
@@ -35592,11 +35437,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1262" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1263">
       <c r="A1263" t="n">
@@ -35654,7 +35494,7 @@
       </c>
       <c r="F1264" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -35734,7 +35574,7 @@
       </c>
       <c r="F1267" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -35764,7 +35604,7 @@
       </c>
       <c r="F1268" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -35794,7 +35634,7 @@
       </c>
       <c r="F1269" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -35969,7 +35809,7 @@
       </c>
       <c r="F1275" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -36027,11 +35867,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1277" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1278">
       <c r="A1278" t="n">
@@ -36142,11 +35977,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1281" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1282">
       <c r="A1282" t="n">
@@ -36264,7 +36094,7 @@
       </c>
       <c r="F1285" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -36294,7 +36124,7 @@
       </c>
       <c r="F1286" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -36347,11 +36177,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1288" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1289">
       <c r="A1289" t="n">
@@ -36429,7 +36254,7 @@
       </c>
       <c r="F1291" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -36457,11 +36282,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1292" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1293">
       <c r="A1293" t="n">
@@ -36489,7 +36309,7 @@
       </c>
       <c r="F1293" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -36517,11 +36337,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1294" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1295">
       <c r="A1295" t="n">
@@ -36549,7 +36364,7 @@
       </c>
       <c r="F1295" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -36577,11 +36392,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1296" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1297">
       <c r="A1297" t="n">
@@ -36634,7 +36444,7 @@
       </c>
       <c r="F1298" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -36777,11 +36587,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1303" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1304">
       <c r="A1304" t="n">
@@ -36837,11 +36642,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1305" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1306">
       <c r="A1306" t="n">
@@ -36899,7 +36699,7 @@
       </c>
       <c r="F1307" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -37014,7 +36814,7 @@
       </c>
       <c r="F1311" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -37129,7 +36929,7 @@
       </c>
       <c r="F1315" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -37189,7 +36989,7 @@
       </c>
       <c r="F1317" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -37219,7 +37019,7 @@
       </c>
       <c r="F1318" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -37249,7 +37049,7 @@
       </c>
       <c r="F1319" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -37279,7 +37079,7 @@
       </c>
       <c r="F1320" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -37452,11 +37252,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1326" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1327">
       <c r="A1327" t="n">
@@ -37484,7 +37279,7 @@
       </c>
       <c r="F1327" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -37514,7 +37309,7 @@
       </c>
       <c r="F1328" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>31.07.2023</t>
         </is>
       </c>
     </row>
@@ -37627,11 +37422,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1332" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1333">
       <c r="A1333" t="n">
@@ -37684,7 +37474,7 @@
       </c>
       <c r="F1334" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -37739,7 +37529,7 @@
       </c>
       <c r="F1336" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -37794,7 +37584,7 @@
       </c>
       <c r="F1338" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -37824,7 +37614,7 @@
       </c>
       <c r="F1339" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -37854,7 +37644,7 @@
       </c>
       <c r="F1340" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -37884,7 +37674,7 @@
       </c>
       <c r="F1341" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -37914,7 +37704,7 @@
       </c>
       <c r="F1342" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -37944,7 +37734,7 @@
       </c>
       <c r="F1343" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -37999,7 +37789,7 @@
       </c>
       <c r="F1345" t="inlineStr">
         <is>
-          <t>17/08/2023</t>
+          <t>31.07.2023</t>
         </is>
       </c>
     </row>
@@ -38027,11 +37817,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1346" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1347">
       <c r="A1347" t="n">
@@ -38082,11 +37867,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1348" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1349">
       <c r="A1349" t="n">
@@ -38137,11 +37917,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1350" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1351">
       <c r="A1351" t="n">
@@ -38167,11 +37942,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1351" t="inlineStr">
-        <is>
-          <t>07/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1352">
       <c r="A1352" t="n">
@@ -38224,7 +37994,7 @@
       </c>
       <c r="F1353" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -38254,7 +38024,7 @@
       </c>
       <c r="F1354" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -38284,7 +38054,7 @@
       </c>
       <c r="F1355" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -38314,7 +38084,7 @@
       </c>
       <c r="F1356" t="inlineStr">
         <is>
-          <t>16/08/2023</t>
+          <t>31.07.2023</t>
         </is>
       </c>
     </row>
@@ -38342,11 +38112,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1357" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1358">
       <c r="A1358" t="n">
@@ -38404,7 +38169,7 @@
       </c>
       <c r="F1359" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -38434,7 +38199,7 @@
       </c>
       <c r="F1360" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -38524,7 +38289,7 @@
       </c>
       <c r="F1363" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -38629,7 +38394,7 @@
       </c>
       <c r="F1367" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -38659,7 +38424,7 @@
       </c>
       <c r="F1368" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -38744,7 +38509,7 @@
       </c>
       <c r="F1371" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -38774,7 +38539,7 @@
       </c>
       <c r="F1372" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -38834,7 +38599,7 @@
       </c>
       <c r="F1374" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -38864,7 +38629,7 @@
       </c>
       <c r="F1375" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -38894,7 +38659,7 @@
       </c>
       <c r="F1376" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -38924,7 +38689,7 @@
       </c>
       <c r="F1377" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -39007,11 +38772,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1380" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1381">
       <c r="A1381" t="n">
@@ -39114,7 +38874,7 @@
       </c>
       <c r="F1384" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -39144,7 +38904,7 @@
       </c>
       <c r="F1385" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39174,7 +38934,7 @@
       </c>
       <c r="F1386" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39204,7 +38964,7 @@
       </c>
       <c r="F1387" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39234,7 +38994,7 @@
       </c>
       <c r="F1388" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -39264,7 +39024,7 @@
       </c>
       <c r="F1389" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -39292,11 +39052,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1390" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1391">
       <c r="A1391" t="n">
@@ -39324,7 +39079,7 @@
       </c>
       <c r="F1391" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39409,7 +39164,7 @@
       </c>
       <c r="F1394" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39439,7 +39194,7 @@
       </c>
       <c r="F1395" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39467,11 +39222,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1396" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1397">
       <c r="A1397" t="n">
@@ -39522,11 +39272,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1398" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1399">
       <c r="A1399" t="n">
@@ -39579,7 +39324,7 @@
       </c>
       <c r="F1400" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39609,7 +39354,7 @@
       </c>
       <c r="F1401" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -39639,7 +39384,7 @@
       </c>
       <c r="F1402" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39669,7 +39414,7 @@
       </c>
       <c r="F1403" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39699,7 +39444,7 @@
       </c>
       <c r="F1404" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -39729,7 +39474,7 @@
       </c>
       <c r="F1405" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39812,11 +39557,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1408" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1409">
       <c r="A1409" t="n">
@@ -39874,7 +39614,7 @@
       </c>
       <c r="F1410" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -39904,7 +39644,7 @@
       </c>
       <c r="F1411" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39934,7 +39674,7 @@
       </c>
       <c r="F1412" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -39962,11 +39702,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1413" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1414">
       <c r="A1414" t="n">
@@ -39994,7 +39729,7 @@
       </c>
       <c r="F1414" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -40074,7 +39809,7 @@
       </c>
       <c r="F1417" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40102,11 +39837,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1418" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1419">
       <c r="A1419" t="n">
@@ -40134,7 +39864,7 @@
       </c>
       <c r="F1419" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -40164,7 +39894,7 @@
       </c>
       <c r="F1420" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -40194,7 +39924,7 @@
       </c>
       <c r="F1421" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -40222,11 +39952,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1422" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1423">
       <c r="A1423" t="n">
@@ -40254,7 +39979,7 @@
       </c>
       <c r="F1423" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -40284,7 +40009,7 @@
       </c>
       <c r="F1424" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -40312,11 +40037,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1425" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1426">
       <c r="A1426" t="n">
@@ -40344,7 +40064,7 @@
       </c>
       <c r="F1426" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -40374,7 +40094,7 @@
       </c>
       <c r="F1427" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -40404,7 +40124,7 @@
       </c>
       <c r="F1428" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40434,7 +40154,7 @@
       </c>
       <c r="F1429" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40462,11 +40182,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1430" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1431">
       <c r="A1431" t="n">
@@ -40494,7 +40209,7 @@
       </c>
       <c r="F1431" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40522,11 +40237,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1432" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1433">
       <c r="A1433" t="n">
@@ -40554,7 +40264,7 @@
       </c>
       <c r="F1433" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40582,11 +40292,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1434" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1435">
       <c r="A1435" t="n">
@@ -40614,7 +40319,7 @@
       </c>
       <c r="F1435" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -40644,7 +40349,7 @@
       </c>
       <c r="F1436" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -40674,7 +40379,7 @@
       </c>
       <c r="F1437" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40729,7 +40434,7 @@
       </c>
       <c r="F1439" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40757,11 +40462,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1440" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1441">
       <c r="A1441" t="n">
@@ -40787,11 +40487,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1441" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1442">
       <c r="A1442" t="n">
@@ -40817,11 +40512,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1442" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1443">
       <c r="A1443" t="n">
@@ -40847,11 +40537,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1443" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1444">
       <c r="A1444" t="n">
@@ -40879,7 +40564,7 @@
       </c>
       <c r="F1444" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40909,7 +40594,7 @@
       </c>
       <c r="F1445" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40939,7 +40624,7 @@
       </c>
       <c r="F1446" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -40969,7 +40654,7 @@
       </c>
       <c r="F1447" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -41024,7 +40709,7 @@
       </c>
       <c r="F1449" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -41054,7 +40739,7 @@
       </c>
       <c r="F1450" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41109,7 +40794,7 @@
       </c>
       <c r="F1452" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -41139,7 +40824,7 @@
       </c>
       <c r="F1453" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41167,11 +40852,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1454" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1455">
       <c r="A1455" t="n">
@@ -41224,7 +40904,7 @@
       </c>
       <c r="F1456" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41279,7 +40959,7 @@
       </c>
       <c r="F1458" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41309,7 +40989,7 @@
       </c>
       <c r="F1459" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -41337,11 +41017,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1460" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1461">
       <c r="A1461" t="n">
@@ -41367,11 +41042,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1461" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1462">
       <c r="A1462" t="n">
@@ -41399,7 +41069,7 @@
       </c>
       <c r="F1462" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -41479,7 +41149,7 @@
       </c>
       <c r="F1465" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -41509,7 +41179,7 @@
       </c>
       <c r="F1466" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41589,7 +41259,7 @@
       </c>
       <c r="F1469" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41619,7 +41289,7 @@
       </c>
       <c r="F1470" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41649,7 +41319,7 @@
       </c>
       <c r="F1471" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41679,7 +41349,7 @@
       </c>
       <c r="F1472" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41709,7 +41379,7 @@
       </c>
       <c r="F1473" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41739,7 +41409,7 @@
       </c>
       <c r="F1474" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -41819,7 +41489,7 @@
       </c>
       <c r="F1477" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -41849,7 +41519,7 @@
       </c>
       <c r="F1478" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -41877,11 +41547,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1479" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1480">
       <c r="A1480" t="n">
@@ -41909,7 +41574,7 @@
       </c>
       <c r="F1480" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -41939,7 +41604,7 @@
       </c>
       <c r="F1481" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -41994,7 +41659,7 @@
       </c>
       <c r="F1483" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42024,7 +41689,7 @@
       </c>
       <c r="F1484" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.03.2023</t>
         </is>
       </c>
     </row>
@@ -42054,7 +41719,7 @@
       </c>
       <c r="F1485" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42084,7 +41749,7 @@
       </c>
       <c r="F1486" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -42114,7 +41779,7 @@
       </c>
       <c r="F1487" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>01.08.2023</t>
         </is>
       </c>
     </row>
@@ -42144,7 +41809,7 @@
       </c>
       <c r="F1488" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -42174,7 +41839,7 @@
       </c>
       <c r="F1489" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42204,7 +41869,7 @@
       </c>
       <c r="F1490" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -42332,11 +41997,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1495" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1496">
       <c r="A1496" t="n">
@@ -42364,7 +42024,7 @@
       </c>
       <c r="F1496" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42394,7 +42054,7 @@
       </c>
       <c r="F1497" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -42424,7 +42084,7 @@
       </c>
       <c r="F1498" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42454,7 +42114,7 @@
       </c>
       <c r="F1499" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42482,11 +42142,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1500" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1501">
       <c r="A1501" t="n">
@@ -42514,7 +42169,7 @@
       </c>
       <c r="F1501" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -42542,11 +42197,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1502" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1503">
       <c r="A1503" t="n">
@@ -42574,7 +42224,7 @@
       </c>
       <c r="F1503" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42602,11 +42252,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1504" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1505">
       <c r="A1505" t="n">
@@ -42634,7 +42279,7 @@
       </c>
       <c r="F1505" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42687,11 +42332,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1507" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1508">
       <c r="A1508" t="n">
@@ -42719,7 +42359,7 @@
       </c>
       <c r="F1508" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42749,7 +42389,7 @@
       </c>
       <c r="F1509" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42777,11 +42417,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1510" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1511">
       <c r="A1511" t="n">
@@ -42809,7 +42444,7 @@
       </c>
       <c r="F1511" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -42889,7 +42524,7 @@
       </c>
       <c r="F1514" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -42917,11 +42552,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1515" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1516">
       <c r="A1516" t="n">
@@ -42949,7 +42579,7 @@
       </c>
       <c r="F1516" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -43004,7 +42634,7 @@
       </c>
       <c r="F1518" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43034,7 +42664,7 @@
       </c>
       <c r="F1519" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43064,7 +42694,7 @@
       </c>
       <c r="F1520" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43119,7 +42749,7 @@
       </c>
       <c r="F1522" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -43147,11 +42777,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1523" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1524">
       <c r="A1524" t="n">
@@ -43177,11 +42802,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1524" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1525">
       <c r="A1525" t="n">
@@ -43209,7 +42829,7 @@
       </c>
       <c r="F1525" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -43239,7 +42859,7 @@
       </c>
       <c r="F1526" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -43269,7 +42889,7 @@
       </c>
       <c r="F1527" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -43299,7 +42919,7 @@
       </c>
       <c r="F1528" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43354,7 +42974,7 @@
       </c>
       <c r="F1530" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -43384,7 +43004,7 @@
       </c>
       <c r="F1531" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43414,7 +43034,7 @@
       </c>
       <c r="F1532" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -43444,7 +43064,7 @@
       </c>
       <c r="F1533" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -43472,11 +43092,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1534" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1535">
       <c r="A1535" t="n">
@@ -43504,7 +43119,7 @@
       </c>
       <c r="F1535" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43532,11 +43147,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1536" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1537">
       <c r="A1537" t="n">
@@ -43564,7 +43174,7 @@
       </c>
       <c r="F1537" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43592,11 +43202,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1538" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1539">
       <c r="A1539" t="n">
@@ -43624,7 +43229,7 @@
       </c>
       <c r="F1539" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43679,7 +43284,7 @@
       </c>
       <c r="F1541" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43709,7 +43314,7 @@
       </c>
       <c r="F1542" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43739,7 +43344,7 @@
       </c>
       <c r="F1543" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -43769,7 +43374,7 @@
       </c>
       <c r="F1544" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03,.08.2023</t>
         </is>
       </c>
     </row>
@@ -43799,7 +43404,7 @@
       </c>
       <c r="F1545" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -43829,7 +43434,7 @@
       </c>
       <c r="F1546" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -43859,7 +43464,7 @@
       </c>
       <c r="F1547" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -43889,7 +43494,7 @@
       </c>
       <c r="F1548" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -43919,7 +43524,7 @@
       </c>
       <c r="F1549" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43949,7 +43554,7 @@
       </c>
       <c r="F1550" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -43979,7 +43584,7 @@
       </c>
       <c r="F1551" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44009,7 +43614,7 @@
       </c>
       <c r="F1552" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -44039,7 +43644,7 @@
       </c>
       <c r="F1553" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -44069,7 +43674,7 @@
       </c>
       <c r="F1554" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -44119,7 +43724,7 @@
       </c>
       <c r="F1556" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -44149,7 +43754,7 @@
       </c>
       <c r="F1557" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -44179,7 +43784,7 @@
       </c>
       <c r="F1558" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -44209,7 +43814,7 @@
       </c>
       <c r="F1559" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -44239,7 +43844,7 @@
       </c>
       <c r="F1560" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44294,7 +43899,7 @@
       </c>
       <c r="F1562" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -44324,7 +43929,7 @@
       </c>
       <c r="F1563" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44379,7 +43984,7 @@
       </c>
       <c r="F1565" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44409,7 +44014,7 @@
       </c>
       <c r="F1566" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44439,7 +44044,7 @@
       </c>
       <c r="F1567" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -44469,7 +44074,7 @@
       </c>
       <c r="F1568" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44499,7 +44104,7 @@
       </c>
       <c r="F1569" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44529,7 +44134,7 @@
       </c>
       <c r="F1570" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44559,7 +44164,7 @@
       </c>
       <c r="F1571" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -44589,7 +44194,7 @@
       </c>
       <c r="F1572" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44667,11 +44272,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1575" t="inlineStr">
-        <is>
-          <t>01/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1576">
       <c r="A1576" t="n">
@@ -44697,11 +44297,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1576" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1577">
       <c r="A1577" t="n">
@@ -44729,7 +44324,7 @@
       </c>
       <c r="F1577" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44759,7 +44354,7 @@
       </c>
       <c r="F1578" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44789,7 +44384,7 @@
       </c>
       <c r="F1579" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>02.08.2023</t>
         </is>
       </c>
     </row>
@@ -44842,11 +44437,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1581" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1582">
       <c r="A1582" t="n">
@@ -44874,7 +44464,7 @@
       </c>
       <c r="F1582" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -44904,7 +44494,7 @@
       </c>
       <c r="F1583" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -44932,11 +44522,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1584" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1585">
       <c r="A1585" t="n">
@@ -44964,7 +44549,7 @@
       </c>
       <c r="F1585" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -44992,11 +44577,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1586" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1587">
       <c r="A1587" t="n">
@@ -45024,7 +44604,7 @@
       </c>
       <c r="F1587" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45054,7 +44634,7 @@
       </c>
       <c r="F1588" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45084,7 +44664,7 @@
       </c>
       <c r="F1589" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45114,7 +44694,7 @@
       </c>
       <c r="F1590" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45144,7 +44724,7 @@
       </c>
       <c r="F1591" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45174,7 +44754,7 @@
       </c>
       <c r="F1592" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -45204,7 +44784,7 @@
       </c>
       <c r="F1593" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45234,7 +44814,7 @@
       </c>
       <c r="F1594" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45264,7 +44844,7 @@
       </c>
       <c r="F1595" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -45294,7 +44874,7 @@
       </c>
       <c r="F1596" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -45322,11 +44902,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1597" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1598">
       <c r="A1598" t="n">
@@ -45354,7 +44929,7 @@
       </c>
       <c r="F1598" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -45384,7 +44959,7 @@
       </c>
       <c r="F1599" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45414,7 +44989,7 @@
       </c>
       <c r="F1600" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45469,7 +45044,7 @@
       </c>
       <c r="F1602" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45499,7 +45074,7 @@
       </c>
       <c r="F1603" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -45529,7 +45104,7 @@
       </c>
       <c r="F1604" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45559,7 +45134,7 @@
       </c>
       <c r="F1605" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45589,7 +45164,7 @@
       </c>
       <c r="F1606" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -45669,7 +45244,7 @@
       </c>
       <c r="F1609" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45697,11 +45272,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1610" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1611">
       <c r="A1611" t="n">
@@ -45729,7 +45299,7 @@
       </c>
       <c r="F1611" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -45757,11 +45327,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1612" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1613">
       <c r="A1613" t="n">
@@ -45789,7 +45354,7 @@
       </c>
       <c r="F1613" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -45844,7 +45409,7 @@
       </c>
       <c r="F1615" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45874,7 +45439,7 @@
       </c>
       <c r="F1616" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45904,7 +45469,7 @@
       </c>
       <c r="F1617" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45934,7 +45499,7 @@
       </c>
       <c r="F1618" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -45989,7 +45554,7 @@
       </c>
       <c r="F1620" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46019,7 +45584,7 @@
       </c>
       <c r="F1621" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46049,7 +45614,7 @@
       </c>
       <c r="F1622" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46104,7 +45669,7 @@
       </c>
       <c r="F1624" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46157,11 +45722,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1626" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1627">
       <c r="A1627" t="n">
@@ -46189,7 +45749,7 @@
       </c>
       <c r="F1627" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46219,7 +45779,7 @@
       </c>
       <c r="F1628" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46249,7 +45809,7 @@
       </c>
       <c r="F1629" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46279,7 +45839,7 @@
       </c>
       <c r="F1630" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -46309,7 +45869,7 @@
       </c>
       <c r="F1631" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46337,11 +45897,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1632" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1633">
       <c r="A1633" t="n">
@@ -46369,7 +45924,7 @@
       </c>
       <c r="F1633" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46399,7 +45954,7 @@
       </c>
       <c r="F1634" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -46429,7 +45984,7 @@
       </c>
       <c r="F1635" t="inlineStr">
         <is>
-          <t>03/08/2023</t>
+          <t>03.08.2023</t>
         </is>
       </c>
     </row>
@@ -46457,11 +46012,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1636" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1637">
       <c r="A1637" t="n">
@@ -46514,7 +46064,7 @@
       </c>
       <c r="F1638" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -46542,11 +46092,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1639" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1640">
       <c r="A1640" t="n">
@@ -46574,7 +46119,7 @@
       </c>
       <c r="F1640" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -46604,7 +46149,7 @@
       </c>
       <c r="F1641" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -46634,7 +46179,7 @@
       </c>
       <c r="F1642" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -46737,11 +46282,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1646" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1647">
       <c r="A1647" t="n">
@@ -46767,11 +46307,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1647" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1648">
       <c r="A1648" t="n">
@@ -46799,7 +46334,7 @@
       </c>
       <c r="F1648" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -46879,7 +46414,7 @@
       </c>
       <c r="F1651" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -46909,7 +46444,7 @@
       </c>
       <c r="F1652" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -46937,11 +46472,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1653" t="inlineStr">
-        <is>
-          <t>07/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1654">
       <c r="A1654" t="n">
@@ -46969,7 +46499,7 @@
       </c>
       <c r="F1654" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -46999,7 +46529,7 @@
       </c>
       <c r="F1655" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -47029,7 +46559,7 @@
       </c>
       <c r="F1656" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47059,7 +46589,7 @@
       </c>
       <c r="F1657" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47089,7 +46619,7 @@
       </c>
       <c r="F1658" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47119,7 +46649,7 @@
       </c>
       <c r="F1659" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47149,7 +46679,7 @@
       </c>
       <c r="F1660" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -47179,7 +46709,7 @@
       </c>
       <c r="F1661" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47209,7 +46739,7 @@
       </c>
       <c r="F1662" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47239,7 +46769,7 @@
       </c>
       <c r="F1663" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47269,7 +46799,7 @@
       </c>
       <c r="F1664" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -47297,11 +46827,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1665" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1666">
       <c r="A1666" t="n">
@@ -47329,7 +46854,7 @@
       </c>
       <c r="F1666" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -47384,7 +46909,7 @@
       </c>
       <c r="F1668" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47439,7 +46964,7 @@
       </c>
       <c r="F1670" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -47544,7 +47069,7 @@
       </c>
       <c r="F1674" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -47599,7 +47124,7 @@
       </c>
       <c r="F1676" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -47654,7 +47179,7 @@
       </c>
       <c r="F1678" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47684,7 +47209,7 @@
       </c>
       <c r="F1679" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -47714,7 +47239,7 @@
       </c>
       <c r="F1680" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47742,11 +47267,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1681" t="inlineStr">
-        <is>
-          <t>07/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1682">
       <c r="A1682" t="n">
@@ -47774,7 +47294,7 @@
       </c>
       <c r="F1682" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -47854,7 +47374,7 @@
       </c>
       <c r="F1685" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -47884,7 +47404,7 @@
       </c>
       <c r="F1686" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -47912,11 +47432,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1687" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1688">
       <c r="A1688" t="n">
@@ -47942,11 +47457,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1688" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1689">
       <c r="A1689" t="n">
@@ -47972,11 +47482,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1689" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1690">
       <c r="A1690" t="n">
@@ -48054,7 +47559,7 @@
       </c>
       <c r="F1692" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48084,7 +47589,7 @@
       </c>
       <c r="F1693" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48114,7 +47619,7 @@
       </c>
       <c r="F1694" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -48142,11 +47647,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1695" t="inlineStr">
-        <is>
-          <t>03/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1696">
       <c r="A1696" t="n">
@@ -48199,7 +47699,7 @@
       </c>
       <c r="F1697" t="inlineStr">
         <is>
-          <t>04/08/2023</t>
+          <t>04.08.2023</t>
         </is>
       </c>
     </row>
@@ -48229,7 +47729,7 @@
       </c>
       <c r="F1698" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48257,11 +47757,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1699" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1700">
       <c r="A1700" t="n">
@@ -48289,7 +47784,7 @@
       </c>
       <c r="F1700" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48319,7 +47814,7 @@
       </c>
       <c r="F1701" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -48347,11 +47842,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1702" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1703">
       <c r="A1703" t="n">
@@ -48379,7 +47869,7 @@
       </c>
       <c r="F1703" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -48407,11 +47897,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1704" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1705">
       <c r="A1705" t="n">
@@ -48437,11 +47922,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1705" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1706">
       <c r="A1706" t="n">
@@ -48469,7 +47949,7 @@
       </c>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48499,7 +47979,7 @@
       </c>
       <c r="F1707" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48552,11 +48032,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1709" t="inlineStr">
-        <is>
-          <t>07/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1710">
       <c r="A1710" t="n">
@@ -48584,7 +48059,7 @@
       </c>
       <c r="F1710" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -48637,11 +48112,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1712" t="inlineStr">
-        <is>
-          <t>07/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1713">
       <c r="A1713" t="n">
@@ -48669,7 +48139,7 @@
       </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -48699,7 +48169,7 @@
       </c>
       <c r="F1714" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -48729,7 +48199,7 @@
       </c>
       <c r="F1715" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48759,7 +48229,7 @@
       </c>
       <c r="F1716" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48789,7 +48259,7 @@
       </c>
       <c r="F1717" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48819,7 +48289,7 @@
       </c>
       <c r="F1718" t="inlineStr">
         <is>
-          <t>05/08/2023</t>
+          <t>05.08.2023</t>
         </is>
       </c>
     </row>
@@ -48849,7 +48319,7 @@
       </c>
       <c r="F1719" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -48879,7 +48349,7 @@
       </c>
       <c r="F1720" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -48909,7 +48379,7 @@
       </c>
       <c r="F1721" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -48939,7 +48409,7 @@
       </c>
       <c r="F1722" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -48969,7 +48439,7 @@
       </c>
       <c r="F1723" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -48999,7 +48469,7 @@
       </c>
       <c r="F1724" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49027,11 +48497,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1725" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1726">
       <c r="A1726" t="n">
@@ -49059,7 +48524,7 @@
       </c>
       <c r="F1726" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49089,7 +48554,7 @@
       </c>
       <c r="F1727" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49119,7 +48584,7 @@
       </c>
       <c r="F1728" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49149,7 +48614,7 @@
       </c>
       <c r="F1729" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49179,7 +48644,7 @@
       </c>
       <c r="F1730" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49209,7 +48674,7 @@
       </c>
       <c r="F1731" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49237,11 +48702,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1732" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1733">
       <c r="A1733" t="n">
@@ -49292,11 +48752,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1734" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1735">
       <c r="A1735" t="n">
@@ -49322,11 +48777,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1735" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1736">
       <c r="A1736" t="n">
@@ -49354,7 +48804,7 @@
       </c>
       <c r="F1736" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49384,7 +48834,7 @@
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -49414,7 +48864,7 @@
       </c>
       <c r="F1738" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49444,7 +48894,7 @@
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49474,7 +48924,7 @@
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49504,7 +48954,7 @@
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49534,7 +48984,7 @@
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49587,11 +49037,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1744" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1745">
       <c r="A1745" t="n">
@@ -49644,7 +49089,7 @@
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49674,7 +49119,7 @@
       </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49704,7 +49149,7 @@
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49734,7 +49179,7 @@
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49764,7 +49209,7 @@
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49794,7 +49239,7 @@
       </c>
       <c r="F1751" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49824,7 +49269,7 @@
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -49852,11 +49297,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1753" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1754">
       <c r="A1754" t="n">
@@ -49884,7 +49324,7 @@
       </c>
       <c r="F1754" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -49914,7 +49354,7 @@
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -49944,7 +49384,7 @@
       </c>
       <c r="F1756" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -49974,7 +49414,7 @@
       </c>
       <c r="F1757" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50004,7 +49444,7 @@
       </c>
       <c r="F1758" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -50057,11 +49497,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1760" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1761">
       <c r="A1761" t="n">
@@ -50114,7 +49549,7 @@
       </c>
       <c r="F1762" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50144,7 +49579,7 @@
       </c>
       <c r="F1763" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50174,7 +49609,7 @@
       </c>
       <c r="F1764" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -50202,11 +49637,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1765" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1766">
       <c r="A1766" t="n">
@@ -50257,11 +49687,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1767" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1768">
       <c r="A1768" t="n">
@@ -50289,7 +49714,7 @@
       </c>
       <c r="F1768" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50317,11 +49742,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1769" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1770">
       <c r="A1770" t="n">
@@ -50374,7 +49794,7 @@
       </c>
       <c r="F1771" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50404,7 +49824,7 @@
       </c>
       <c r="F1772" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50434,7 +49854,7 @@
       </c>
       <c r="F1773" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50489,7 +49909,7 @@
       </c>
       <c r="F1775" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50519,7 +49939,7 @@
       </c>
       <c r="F1776" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50624,7 +50044,7 @@
       </c>
       <c r="F1780" t="inlineStr">
         <is>
-          <t>01/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -50679,7 +50099,7 @@
       </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -50709,7 +50129,7 @@
       </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>07/08/2023</t>
+          <t>07.08.2023</t>
         </is>
       </c>
     </row>
@@ -50739,7 +50159,7 @@
       </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50767,11 +50187,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1785" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1786">
       <c r="A1786" t="n">
@@ -50824,7 +50239,7 @@
       </c>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50852,11 +50267,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1788" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1789">
       <c r="A1789" t="n">
@@ -50884,7 +50294,7 @@
       </c>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -50914,7 +50324,7 @@
       </c>
       <c r="F1790" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -50944,7 +50354,7 @@
       </c>
       <c r="F1791" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -50972,11 +50382,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1792" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1793">
       <c r="A1793" t="n">
@@ -51002,11 +50407,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1793" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1794">
       <c r="A1794" t="n">
@@ -51059,7 +50459,7 @@
       </c>
       <c r="F1795" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -51089,7 +50489,7 @@
       </c>
       <c r="F1796" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -51144,7 +50544,7 @@
       </c>
       <c r="F1798" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51174,7 +50574,7 @@
       </c>
       <c r="F1799" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51204,7 +50604,7 @@
       </c>
       <c r="F1800" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51234,7 +50634,7 @@
       </c>
       <c r="F1801" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51264,7 +50664,7 @@
       </c>
       <c r="F1802" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51294,7 +50694,7 @@
       </c>
       <c r="F1803" t="inlineStr">
         <is>
-          <t>02/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -51422,11 +50822,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1808" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1809">
       <c r="A1809" t="n">
@@ -51454,7 +50849,7 @@
       </c>
       <c r="F1809" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -51484,7 +50879,7 @@
       </c>
       <c r="F1810" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51512,11 +50907,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1811" t="inlineStr">
-        <is>
-          <t>10/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1812">
       <c r="A1812" t="n">
@@ -51542,11 +50932,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1812" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1813">
       <c r="A1813" t="n">
@@ -51597,11 +50982,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1814" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1815">
       <c r="A1815" t="n">
@@ -51627,11 +51007,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1815" t="inlineStr">
-        <is>
-          <t>08/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1816">
       <c r="A1816" t="n">
@@ -51657,11 +51032,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1816" t="inlineStr">
-        <is>
-          <t>10/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1817">
       <c r="A1817" t="n">
@@ -51687,11 +51057,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1817" t="inlineStr">
-        <is>
-          <t>10/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1818">
       <c r="A1818" t="n">
@@ -51719,7 +51084,7 @@
       </c>
       <c r="F1818" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51774,7 +51139,7 @@
       </c>
       <c r="F1820" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51804,7 +51169,7 @@
       </c>
       <c r="F1821" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -51884,7 +51249,7 @@
       </c>
       <c r="F1824" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -51912,11 +51277,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1825" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1826">
       <c r="A1826" t="n">
@@ -51944,7 +51304,7 @@
       </c>
       <c r="F1826" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -51974,7 +51334,7 @@
       </c>
       <c r="F1827" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52004,7 +51364,7 @@
       </c>
       <c r="F1828" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52034,7 +51394,7 @@
       </c>
       <c r="F1829" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52087,11 +51447,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1831" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1832">
       <c r="A1832" t="n">
@@ -52119,7 +51474,7 @@
       </c>
       <c r="F1832" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52149,7 +51504,7 @@
       </c>
       <c r="F1833" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52179,7 +51534,7 @@
       </c>
       <c r="F1834" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52209,7 +51564,7 @@
       </c>
       <c r="F1835" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52289,7 +51644,7 @@
       </c>
       <c r="F1838" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52319,7 +51674,7 @@
       </c>
       <c r="F1839" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52349,7 +51704,7 @@
       </c>
       <c r="F1840" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52379,7 +51734,7 @@
       </c>
       <c r="F1841" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52407,11 +51762,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1842" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1843">
       <c r="A1843" t="n">
@@ -52439,7 +51789,7 @@
       </c>
       <c r="F1843" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52469,7 +51819,7 @@
       </c>
       <c r="F1844" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52499,7 +51849,7 @@
       </c>
       <c r="F1845" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52529,7 +51879,7 @@
       </c>
       <c r="F1846" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52559,7 +51909,7 @@
       </c>
       <c r="F1847" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52589,7 +51939,7 @@
       </c>
       <c r="F1848" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52619,7 +51969,7 @@
       </c>
       <c r="F1849" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52649,7 +51999,7 @@
       </c>
       <c r="F1850" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52677,11 +52027,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1851" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1852">
       <c r="A1852" t="n">
@@ -52709,7 +52054,7 @@
       </c>
       <c r="F1852" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52739,7 +52084,7 @@
       </c>
       <c r="F1853" t="inlineStr">
         <is>
-          <t>08/08/2023</t>
+          <t>08.08.2023</t>
         </is>
       </c>
     </row>
@@ -52769,7 +52114,7 @@
       </c>
       <c r="F1854" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52874,7 +52219,7 @@
       </c>
       <c r="F1858" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52904,7 +52249,7 @@
       </c>
       <c r="F1859" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52934,7 +52279,7 @@
       </c>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52964,7 +52309,7 @@
       </c>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -52994,7 +52339,7 @@
       </c>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53024,7 +52369,7 @@
       </c>
       <c r="F1863" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53054,7 +52399,7 @@
       </c>
       <c r="F1864" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53084,7 +52429,7 @@
       </c>
       <c r="F1865" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53114,7 +52459,7 @@
       </c>
       <c r="F1866" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53144,7 +52489,7 @@
       </c>
       <c r="F1867" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53197,11 +52542,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1869" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1870">
       <c r="A1870" t="n">
@@ -53229,7 +52569,7 @@
       </c>
       <c r="F1870" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53259,7 +52599,7 @@
       </c>
       <c r="F1871" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53289,7 +52629,7 @@
       </c>
       <c r="F1872" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53317,11 +52657,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1873" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1874">
       <c r="A1874" t="n">
@@ -53374,7 +52709,7 @@
       </c>
       <c r="F1875" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53402,11 +52737,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1876" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1877">
       <c r="A1877" t="n">
@@ -53434,7 +52764,7 @@
       </c>
       <c r="F1877" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53464,7 +52794,7 @@
       </c>
       <c r="F1878" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53492,11 +52822,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1879" t="inlineStr">
-        <is>
-          <t>07/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1880">
       <c r="A1880" t="n">
@@ -53524,7 +52849,7 @@
       </c>
       <c r="F1880" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -53577,11 +52902,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1882" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1883">
       <c r="A1883" t="n">
@@ -53657,11 +52977,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1885" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1886">
       <c r="A1886" t="n">
@@ -53689,7 +53004,7 @@
       </c>
       <c r="F1886" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53719,7 +53034,7 @@
       </c>
       <c r="F1887" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53774,7 +53089,7 @@
       </c>
       <c r="F1889" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53804,7 +53119,7 @@
       </c>
       <c r="F1890" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53834,7 +53149,7 @@
       </c>
       <c r="F1891" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53864,7 +53179,7 @@
       </c>
       <c r="F1892" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53894,7 +53209,7 @@
       </c>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53924,7 +53239,7 @@
       </c>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53954,7 +53269,7 @@
       </c>
       <c r="F1895" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -53984,7 +53299,7 @@
       </c>
       <c r="F1896" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54014,7 +53329,7 @@
       </c>
       <c r="F1897" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54042,11 +53357,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1898" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1899">
       <c r="A1899" t="n">
@@ -54099,7 +53409,7 @@
       </c>
       <c r="F1900" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54129,7 +53439,7 @@
       </c>
       <c r="F1901" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54232,11 +53542,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1905" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1906">
       <c r="A1906" t="n">
@@ -54262,11 +53567,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1906" t="inlineStr">
-        <is>
-          <t>10/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1907">
       <c r="A1907" t="n">
@@ -54292,11 +53592,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1907" t="inlineStr">
-        <is>
-          <t>10/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1908">
       <c r="A1908" t="n">
@@ -54324,7 +53619,7 @@
       </c>
       <c r="F1908" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54354,7 +53649,7 @@
       </c>
       <c r="F1909" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54382,11 +53677,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1910" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1911">
       <c r="A1911" t="n">
@@ -54414,7 +53704,7 @@
       </c>
       <c r="F1911" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54444,7 +53734,7 @@
       </c>
       <c r="F1912" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54497,11 +53787,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1914" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1915">
       <c r="A1915" t="n">
@@ -54529,7 +53814,7 @@
       </c>
       <c r="F1915" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54559,7 +53844,7 @@
       </c>
       <c r="F1916" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -54589,7 +53874,7 @@
       </c>
       <c r="F1917" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54642,11 +53927,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1919" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1920">
       <c r="A1920" t="n">
@@ -54672,11 +53952,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1920" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1921">
       <c r="A1921" t="n">
@@ -54702,11 +53977,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1921" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1922">
       <c r="A1922" t="n">
@@ -54732,11 +54002,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1922" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1923">
       <c r="A1923" t="n">
@@ -54814,7 +54079,7 @@
       </c>
       <c r="F1925" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -54844,7 +54109,7 @@
       </c>
       <c r="F1926" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54872,11 +54137,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1927" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1928">
       <c r="A1928" t="n">
@@ -54902,11 +54162,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1928" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1929">
       <c r="A1929" t="n">
@@ -54932,11 +54187,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1929" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1930">
       <c r="A1930" t="n">
@@ -54964,7 +54214,7 @@
       </c>
       <c r="F1930" t="inlineStr">
         <is>
-          <t>09/08/2023</t>
+          <t>09.08.2023</t>
         </is>
       </c>
     </row>
@@ -54992,11 +54242,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1931" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1932">
       <c r="A1932" t="n">
@@ -55022,11 +54267,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1932" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1933">
       <c r="A1933" t="n">
@@ -55052,11 +54292,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1933" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1934">
       <c r="A1934" t="n">
@@ -55082,11 +54317,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1934" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1935">
       <c r="A1935" t="n">
@@ -55112,11 +54342,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1935" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1936">
       <c r="A1936" t="n">
@@ -55142,11 +54367,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1936" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1937">
       <c r="A1937" t="n">
@@ -55172,11 +54392,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1937" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1938">
       <c r="A1938" t="n">
@@ -55229,7 +54444,7 @@
       </c>
       <c r="F1939" t="inlineStr">
         <is>
-          <t>10/08/2023</t>
+          <t>10.08.2023</t>
         </is>
       </c>
     </row>
@@ -55257,11 +54472,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1940" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1941">
       <c r="A1941" t="n">
@@ -55287,11 +54497,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1941" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1942">
       <c r="A1942" t="n">
@@ -55342,11 +54547,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1943" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1944">
       <c r="A1944" t="n">
@@ -55422,11 +54622,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1946" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1947">
       <c r="A1947" t="n">
@@ -55452,11 +54647,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1947" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1948">
       <c r="A1948" t="n">
@@ -55482,11 +54672,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1948" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1949">
       <c r="A1949" t="n">
@@ -55512,11 +54697,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1949" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1950">
       <c r="A1950" t="n">
@@ -55542,11 +54722,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1950" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1951">
       <c r="A1951" t="n">
@@ -55597,11 +54772,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1952" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1953">
       <c r="A1953" t="n">
@@ -55627,11 +54797,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1953" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1954">
       <c r="A1954" t="n">
@@ -55657,11 +54822,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1954" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1955">
       <c r="A1955" t="n">
@@ -55687,11 +54847,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1955" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1956">
       <c r="A1956" t="n">
@@ -55742,11 +54897,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1957" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1958">
       <c r="A1958" t="n">
@@ -55797,11 +54947,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1959" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1960">
       <c r="A1960" t="n">
@@ -55877,11 +55022,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1962" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1963">
       <c r="A1963" t="n">
@@ -55907,11 +55047,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1963" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1964">
       <c r="A1964" t="n">
@@ -55962,11 +55097,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1965" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1966">
       <c r="A1966" t="n">
@@ -55992,11 +55122,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1966" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1967">
       <c r="A1967" t="n">
@@ -56022,11 +55147,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1967" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1968">
       <c r="A1968" t="n">
@@ -56052,11 +55172,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1968" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1969">
       <c r="A1969" t="n">
@@ -56132,11 +55247,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1971" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1972">
       <c r="A1972" t="n">
@@ -56162,11 +55272,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1972" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1973">
       <c r="A1973" t="n">
@@ -56192,11 +55297,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1973" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1974">
       <c r="A1974" t="n">
@@ -56222,11 +55322,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1974" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1975">
       <c r="A1975" t="n">
@@ -56252,11 +55347,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1975" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1976">
       <c r="A1976" t="n">
@@ -56282,11 +55372,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1976" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1977">
       <c r="A1977" t="n">
@@ -56312,11 +55397,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1977" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1978">
       <c r="A1978" t="n">
@@ -56367,11 +55447,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1979" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1980">
       <c r="A1980" t="n">
@@ -56397,11 +55472,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1980" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1981">
       <c r="A1981" t="n">
@@ -56427,11 +55497,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1981" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1982">
       <c r="A1982" t="n">
@@ -56457,11 +55522,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1982" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1983">
       <c r="A1983" t="n">
@@ -56487,11 +55547,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1983" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1984">
       <c r="A1984" t="n">
@@ -56617,11 +55672,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1988" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1989">
       <c r="A1989" t="n">
@@ -56647,11 +55697,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1989" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1990">
       <c r="A1990" t="n">
@@ -56677,11 +55722,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1990" t="inlineStr">
-        <is>
-          <t>13/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1991">
       <c r="A1991" t="n">
@@ -56707,11 +55747,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F1991" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1992">
       <c r="A1992" t="n">
@@ -56737,11 +55772,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1992" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1993">
       <c r="A1993" t="n">
@@ -56767,11 +55797,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1993" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1994">
       <c r="A1994" t="n">
@@ -56797,11 +55822,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1994" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1995">
       <c r="A1995" t="n">
@@ -56827,11 +55847,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1995" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1996">
       <c r="A1996" t="n">
@@ -56857,11 +55872,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1996" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1997">
       <c r="A1997" t="n">
@@ -56887,11 +55897,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1997" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="1998">
       <c r="A1998" t="n">
@@ -56942,11 +55947,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F1999" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2000">
       <c r="A2000" t="n">
@@ -56997,11 +55997,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2001" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2002">
       <c r="A2002" t="n">
@@ -57027,11 +56022,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2002" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2003">
       <c r="A2003" t="n">
@@ -57057,11 +56047,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2003" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2004">
       <c r="A2004" t="n">
@@ -57087,11 +56072,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2004" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2005">
       <c r="A2005" t="n">
@@ -57117,11 +56097,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2005" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2006">
       <c r="A2006" t="n">
@@ -57147,11 +56122,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2006" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2007">
       <c r="A2007" t="n">
@@ -57202,11 +56172,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2008" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2009">
       <c r="A2009" t="n">
@@ -57232,11 +56197,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2009" t="inlineStr">
-        <is>
-          <t>02/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2010">
       <c r="A2010" t="n">
@@ -57262,11 +56222,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2010" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2011">
       <c r="A2011" t="n">
@@ -57292,11 +56247,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2011" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2012">
       <c r="A2012" t="n">
@@ -57347,11 +56297,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2013" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2014">
       <c r="A2014" t="n">
@@ -57402,11 +56347,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2015" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2016">
       <c r="A2016" t="n">
@@ -57432,11 +56372,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2016" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2017">
       <c r="A2017" t="n">
@@ -57462,11 +56397,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2017" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2018">
       <c r="A2018" t="n">
@@ -57492,11 +56422,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2018" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2019">
       <c r="A2019" t="n">
@@ -57522,11 +56447,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2019" t="inlineStr">
-        <is>
-          <t>11/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2020">
       <c r="A2020" t="n">
@@ -57552,11 +56472,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2020" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2021">
       <c r="A2021" t="n">
@@ -57607,11 +56522,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2022" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2023">
       <c r="A2023" t="n">
@@ -57637,11 +56547,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2023" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2024">
       <c r="A2024" t="n">
@@ -57692,11 +56597,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2025" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2026">
       <c r="A2026" t="n">
@@ -57722,11 +56622,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2026" t="inlineStr">
-        <is>
-          <t>05/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2027">
       <c r="A2027" t="n">
@@ -57752,11 +56647,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2027" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2028">
       <c r="A2028" t="n">
@@ -57782,11 +56672,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2028" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2029">
       <c r="A2029" t="n">
@@ -57837,11 +56722,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2030" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2031">
       <c r="A2031" t="n">
@@ -57867,11 +56747,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2031" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2032">
       <c r="A2032" t="n">
@@ -57892,11 +56767,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2032" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2033">
       <c r="A2033" t="n">
@@ -57922,11 +56792,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2033" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2034">
       <c r="A2034" t="n">
@@ -57952,11 +56817,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2034" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2035">
       <c r="A2035" t="n">
@@ -57982,11 +56842,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2035" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2036">
       <c r="A2036" t="n">
@@ -58012,11 +56867,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2036" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2037">
       <c r="A2037" t="n">
@@ -58042,11 +56892,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2037" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2038">
       <c r="A2038" t="n">
@@ -58097,11 +56942,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2039" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2040">
       <c r="A2040" t="n">
@@ -58252,11 +57092,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2045" t="inlineStr">
-        <is>
-          <t>09/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2046">
       <c r="A2046" t="n">
@@ -58282,11 +57117,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2046" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2047">
       <c r="A2047" t="n">
@@ -58312,11 +57142,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2047" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2048">
       <c r="A2048" t="n">
@@ -58392,11 +57217,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2050" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2051">
       <c r="A2051" t="n">
@@ -58422,11 +57242,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2051" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2052">
       <c r="A2052" t="n">
@@ -58452,11 +57267,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2052" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2053">
       <c r="A2053" t="n">
@@ -58482,11 +57292,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2053" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2054">
       <c r="A2054" t="n">
@@ -58512,11 +57317,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2054" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2055">
       <c r="A2055" t="n">
@@ -58542,11 +57342,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2055" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2056">
       <c r="A2056" t="n">
@@ -58572,11 +57367,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2056" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2057">
       <c r="A2057" t="n">
@@ -58602,11 +57392,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2057" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2058">
       <c r="A2058" t="n">
@@ -58632,11 +57417,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2058" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2059">
       <c r="A2059" t="n">
@@ -58662,11 +57442,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2059" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2060">
       <c r="A2060" t="n">
@@ -58692,11 +57467,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2060" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2061">
       <c r="A2061" t="n">
@@ -58722,11 +57492,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2061" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2062">
       <c r="A2062" t="n">
@@ -58752,11 +57517,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2062" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2063">
       <c r="A2063" t="n">
@@ -58782,11 +57542,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2063" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2064">
       <c r="A2064" t="n">
@@ -58812,11 +57567,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2064" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2065">
       <c r="A2065" t="n">
@@ -58842,11 +57592,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2065" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2066">
       <c r="A2066" t="n">
@@ -58872,11 +57617,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2066" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2067">
       <c r="A2067" t="n">
@@ -58902,11 +57642,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2067" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2068">
       <c r="A2068" t="n">
@@ -58932,11 +57667,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2068" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2069">
       <c r="A2069" t="n">
@@ -58962,11 +57692,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2069" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2070">
       <c r="A2070" t="n">
@@ -58992,11 +57717,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2070" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2071">
       <c r="A2071" t="n">
@@ -59022,11 +57742,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2071" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2072">
       <c r="A2072" t="n">
@@ -59052,11 +57767,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2072" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2073">
       <c r="A2073" t="n">
@@ -59107,11 +57817,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2074" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2075">
       <c r="A2075" t="n">
@@ -59162,11 +57867,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2076" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2077">
       <c r="A2077" t="n">
@@ -59192,11 +57892,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2077" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2078">
       <c r="A2078" t="n">
@@ -59222,11 +57917,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2078" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2079">
       <c r="A2079" t="n">
@@ -59277,11 +57967,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2080" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2081">
       <c r="A2081" t="n">
@@ -59307,11 +57992,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2081" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2082">
       <c r="A2082" t="n">
@@ -59337,11 +58017,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2082" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2083">
       <c r="A2083" t="n">
@@ -59367,11 +58042,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2083" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2084">
       <c r="A2084" t="n">
@@ -59522,11 +58192,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2089" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2090">
       <c r="A2090" t="n">
@@ -59552,11 +58217,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2090" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2091">
       <c r="A2091" t="n">
@@ -59582,11 +58242,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2091" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2092">
       <c r="A2092" t="n">
@@ -59612,11 +58267,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2092" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2093">
       <c r="A2093" t="n">
@@ -59667,11 +58317,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2094" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2095">
       <c r="A2095" t="n">
@@ -59697,11 +58342,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2095" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2096">
       <c r="A2096" t="n">
@@ -59727,11 +58367,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2096" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2097">
       <c r="A2097" t="n">
@@ -59757,11 +58392,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2097" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2098">
       <c r="A2098" t="n">
@@ -59787,11 +58417,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2098" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2099">
       <c r="A2099" t="n">
@@ -59817,11 +58442,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2099" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2100">
       <c r="A2100" t="n">
@@ -59847,11 +58467,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2100" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2101">
       <c r="A2101" t="n">
@@ -59902,11 +58517,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2102" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2103">
       <c r="A2103" t="n">
@@ -59932,11 +58542,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2103" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2104">
       <c r="A2104" t="n">
@@ -59962,11 +58567,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2104" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2105">
       <c r="A2105" t="n">
@@ -59992,11 +58592,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2105" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2106">
       <c r="A2106" t="n">
@@ -60022,11 +58617,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2106" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2107">
       <c r="A2107" t="n">
@@ -60052,11 +58642,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2107" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2108">
       <c r="A2108" t="n">
@@ -60082,11 +58667,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2108" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2109">
       <c r="A2109" t="n">
@@ -60112,11 +58692,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2109" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2110">
       <c r="A2110" t="n">
@@ -60142,11 +58717,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2110" t="inlineStr">
-        <is>
-          <t>04/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2111">
       <c r="A2111" t="n">
@@ -60172,11 +58742,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2111" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2112">
       <c r="A2112" t="n">
@@ -60202,11 +58767,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2112" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2113">
       <c r="A2113" t="n">
@@ -60232,11 +58792,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2113" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2114">
       <c r="A2114" t="n">
@@ -60262,11 +58817,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2114" t="inlineStr">
-        <is>
-          <t>14/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2115">
       <c r="A2115" t="n">
@@ -60292,11 +58842,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2115" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2116">
       <c r="A2116" t="n">
@@ -60372,11 +58917,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2118" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2119">
       <c r="A2119" t="n">
@@ -60402,11 +58942,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2119" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2120">
       <c r="A2120" t="n">
@@ -60457,11 +58992,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2121" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2122">
       <c r="A2122" t="n">
@@ -60487,11 +59017,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2122" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2123">
       <c r="A2123" t="n">
@@ -60542,11 +59067,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2124" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2125">
       <c r="A2125" t="n">
@@ -60572,11 +59092,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2125" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2126">
       <c r="A2126" t="n">
@@ -60602,11 +59117,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2126" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2127">
       <c r="A2127" t="n">
@@ -60632,11 +59142,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2127" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2128">
       <c r="A2128" t="n">
@@ -60687,11 +59192,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2129" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2130">
       <c r="A2130" t="n">
@@ -60742,11 +59242,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2131" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2132">
       <c r="A2132" t="n">
@@ -60847,11 +59342,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2135" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2136">
       <c r="A2136" t="n">
@@ -60877,11 +59367,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2136" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2137">
       <c r="A2137" t="n">
@@ -60982,11 +59467,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2140" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2141">
       <c r="A2141" t="n">
@@ -61037,11 +59517,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2142" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2143">
       <c r="A2143" t="n">
@@ -61167,11 +59642,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2147" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2148">
       <c r="A2148" t="n">
@@ -61222,11 +59692,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2149" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2150">
       <c r="A2150" t="n">
@@ -61302,11 +59767,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2152" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2153">
       <c r="A2153" t="n">
@@ -61332,11 +59792,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2153" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2154">
       <c r="A2154" t="n">
@@ -61362,11 +59817,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2154" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2155">
       <c r="A2155" t="n">
@@ -61417,11 +59867,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2156" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2157">
       <c r="A2157" t="n">
@@ -61447,11 +59892,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2157" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2158">
       <c r="A2158" t="n">
@@ -61477,11 +59917,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2158" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2159">
       <c r="A2159" t="n">
@@ -61507,11 +59942,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2159" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2160">
       <c r="A2160" t="n">
@@ -61537,11 +59967,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2160" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2161">
       <c r="A2161" t="n">
@@ -61567,11 +59992,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2161" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2162">
       <c r="A2162" t="n">
@@ -61597,11 +60017,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2162" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2163">
       <c r="A2163" t="n">
@@ -61627,11 +60042,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2163" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2164">
       <c r="A2164" t="n">
@@ -61657,11 +60067,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2164" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2165">
       <c r="A2165" t="n">
@@ -61687,11 +60092,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2165" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2166">
       <c r="A2166" t="n">
@@ -61717,11 +60117,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2166" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2167">
       <c r="A2167" t="n">
@@ -61747,11 +60142,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2167" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2168">
       <c r="A2168" t="n">
@@ -61802,11 +60192,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2169" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2170">
       <c r="A2170" t="n">
@@ -61832,11 +60217,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2170" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2171">
       <c r="A2171" t="n">
@@ -61862,11 +60242,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2171" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2172">
       <c r="A2172" t="n">
@@ -61892,11 +60267,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2172" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2173">
       <c r="A2173" t="n">
@@ -61922,11 +60292,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2173" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2174">
       <c r="A2174" t="n">
@@ -61952,11 +60317,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2174" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2175">
       <c r="A2175" t="n">
@@ -61982,11 +60342,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2175" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2176">
       <c r="A2176" t="n">
@@ -62012,11 +60367,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2176" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2177">
       <c r="A2177" t="n">
@@ -62042,11 +60392,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2177" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2178">
       <c r="A2178" t="n">
@@ -62097,11 +60442,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2179" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2180">
       <c r="A2180" t="n">
@@ -62127,11 +60467,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2180" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2181">
       <c r="A2181" t="n">
@@ -62207,11 +60542,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2183" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2184">
       <c r="A2184" t="n">
@@ -62237,11 +60567,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2184" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2185">
       <c r="A2185" t="n">
@@ -62267,11 +60592,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2185" t="inlineStr">
-        <is>
-          <t>15/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2186">
       <c r="A2186" t="n">
@@ -62297,11 +60617,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2186" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2187">
       <c r="A2187" t="n">
@@ -62327,11 +60642,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2187" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2188">
       <c r="A2188" t="n">
@@ -62352,11 +60662,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2188" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2189">
       <c r="A2189" t="n">
@@ -62382,11 +60687,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2189" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2190">
       <c r="A2190" t="n">
@@ -62437,11 +60737,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2191" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2192">
       <c r="A2192" t="n">
@@ -62542,11 +60837,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2195" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2196">
       <c r="A2196" t="n">
@@ -62572,11 +60862,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2196" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2197">
       <c r="A2197" t="n">
@@ -62627,11 +60912,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2198" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2199">
       <c r="A2199" t="n">
@@ -62657,11 +60937,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2199" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2200">
       <c r="A2200" t="n">
@@ -62687,11 +60962,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2200" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2201">
       <c r="A2201" t="n">
@@ -62792,11 +61062,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2204" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2205">
       <c r="A2205" t="n">
@@ -62847,11 +61112,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2206" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2207">
       <c r="A2207" t="n">
@@ -62877,11 +61137,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2207" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2208">
       <c r="A2208" t="n">
@@ -62907,11 +61162,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2208" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2209">
       <c r="A2209" t="n">
@@ -62937,11 +61187,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2209" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2210">
       <c r="A2210" t="n">
@@ -62967,11 +61212,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2210" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2211">
       <c r="A2211" t="n">
@@ -62997,11 +61237,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2211" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2212">
       <c r="A2212" t="n">
@@ -63027,11 +61262,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2212" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2213">
       <c r="A2213" t="n">
@@ -63057,11 +61287,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2213" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2214">
       <c r="A2214" t="n">
@@ -63087,11 +61312,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2214" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2215">
       <c r="A2215" t="n">
@@ -63117,11 +61337,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2215" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2216">
       <c r="A2216" t="n">
@@ -63147,11 +61362,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2216" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2217">
       <c r="A2217" t="n">
@@ -63327,11 +61537,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2223" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2224">
       <c r="A2224" t="n">
@@ -63357,11 +61562,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2224" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2225">
       <c r="A2225" t="n">
@@ -63412,11 +61612,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2226" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2227">
       <c r="A2227" t="n">
@@ -63442,11 +61637,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2227" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2228">
       <c r="A2228" t="n">
@@ -63497,11 +61687,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2229" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2230">
       <c r="A2230" t="n">
@@ -63527,11 +61712,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2230" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2231">
       <c r="A2231" t="n">
@@ -63582,11 +61762,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2232" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2233">
       <c r="A2233" t="n">
@@ -63637,11 +61812,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2234" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2235">
       <c r="A2235" t="n">
@@ -63667,11 +61837,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2235" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2236">
       <c r="A2236" t="n">
@@ -63722,11 +61887,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2237" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2238">
       <c r="A2238" t="n">
@@ -63752,11 +61912,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2238" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2239">
       <c r="A2239" t="n">
@@ -63782,11 +61937,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2239" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2240">
       <c r="A2240" t="n">
@@ -63862,11 +62012,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2242" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2243">
       <c r="A2243" t="n">
@@ -63892,11 +62037,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2243" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2244">
       <c r="A2244" t="n">
@@ -63947,11 +62087,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2245" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2246">
       <c r="A2246" t="n">
@@ -63977,11 +62112,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2246" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2247">
       <c r="A2247" t="n">
@@ -64007,11 +62137,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2247" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2248">
       <c r="A2248" t="n">
@@ -64062,11 +62187,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2249" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2250">
       <c r="A2250" t="n">
@@ -64092,11 +62212,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2250" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2251">
       <c r="A2251" t="n">
@@ -64147,11 +62262,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2252" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2253">
       <c r="A2253" t="n">
@@ -64202,11 +62312,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2254" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2255">
       <c r="A2255" t="n">
@@ -64232,11 +62337,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2255" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2256">
       <c r="A2256" t="n">
@@ -64337,11 +62437,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2259" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2260">
       <c r="A2260" t="n">
@@ -64567,11 +62662,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2268" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2269">
       <c r="A2269" t="n">
@@ -64597,11 +62687,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2269" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2270">
       <c r="A2270" t="n">
@@ -64777,11 +62862,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2276" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2277">
       <c r="A2277" t="n">
@@ -64807,11 +62887,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2277" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2278">
       <c r="A2278" t="n">
@@ -64837,11 +62912,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2278" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2279">
       <c r="A2279" t="n">
@@ -64867,11 +62937,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2279" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2280">
       <c r="A2280" t="n">
@@ -64897,11 +62962,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2280" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2281">
       <c r="A2281" t="n">
@@ -64952,11 +63012,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2282" t="inlineStr">
-        <is>
-          <t>16/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2283">
       <c r="A2283" t="n">
@@ -65007,11 +63062,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2284" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2285">
       <c r="A2285" t="n">
@@ -65037,11 +63087,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2285" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2286">
       <c r="A2286" t="n">
@@ -65067,11 +63112,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2286" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2287">
       <c r="A2287" t="n">
@@ -65097,11 +63137,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2287" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2288">
       <c r="A2288" t="n">
@@ -65127,11 +63162,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2288" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2289">
       <c r="A2289" t="n">
@@ -65232,11 +63262,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2292" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2293">
       <c r="A2293" t="n">
@@ -65262,11 +63287,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2293" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2294">
       <c r="A2294" t="n">
@@ -65292,11 +63312,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2294" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2295">
       <c r="A2295" t="n">
@@ -65322,11 +63337,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2295" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2296">
       <c r="A2296" t="n">
@@ -65352,11 +63362,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2296" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2297">
       <c r="A2297" t="n">
@@ -65382,11 +63387,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2297" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2298">
       <c r="A2298" t="n">
@@ -65412,11 +63412,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2298" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2299">
       <c r="A2299" t="n">
@@ -65442,11 +63437,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2299" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2300">
       <c r="A2300" t="n">
@@ -65472,11 +63462,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2300" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2301">
       <c r="A2301" t="n">
@@ -65527,11 +63512,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2302" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2303">
       <c r="A2303" t="n">
@@ -65557,11 +63537,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2303" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2304">
       <c r="A2304" t="n">
@@ -65587,11 +63562,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2304" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2305">
       <c r="A2305" t="n">
@@ -65717,11 +63687,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2309" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2310">
       <c r="A2310" t="n">
@@ -65747,11 +63712,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2310" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2311">
       <c r="A2311" t="n">
@@ -65777,11 +63737,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2311" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2312">
       <c r="A2312" t="n">
@@ -65807,11 +63762,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2312" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2313">
       <c r="A2313" t="n">
@@ -65862,11 +63812,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2314" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2315">
       <c r="A2315" t="n">
@@ -66017,11 +63962,6 @@
           <t>ATC</t>
         </is>
       </c>
-      <c r="F2320" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2321">
       <c r="A2321" t="n">
@@ -66172,11 +64112,6 @@
           <t>SUCURSALES</t>
         </is>
       </c>
-      <c r="F2326" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
-        </is>
-      </c>
     </row>
     <row r="2327">
       <c r="A2327" t="n">
@@ -66295,11 +64230,6 @@
       <c r="E2331" t="inlineStr">
         <is>
           <t>ATC</t>
-        </is>
-      </c>
-      <c r="F2331" t="inlineStr">
-        <is>
-          <t>17/08/2023</t>
         </is>
       </c>
     </row>
